--- a/examples/wangetal2018/out/ResultFiles/AC_1.0_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_1.0_b.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -171,12 +171,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -231,6 +231,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -324,9 +330,6 @@
     <t>Electric power (kW)</t>
   </si>
   <si>
-    <t>Supply compressor</t>
-  </si>
-  <si>
     <t>C_0_0</t>
   </si>
   <si>
@@ -336,6 +339,9 @@
     <t>C_1_0</t>
   </si>
   <si>
+    <t>C_1_1</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -411,7 +417,10 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05</t>
+    <t>PI05_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI05_remaining</t>
   </si>
   <si>
     <t>PI06</t>
@@ -447,6 +456,9 @@
     <t>N05</t>
   </si>
   <si>
+    <t>N_post_C_1_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
@@ -468,6 +480,9 @@
     <t>N_pre_C_1_0</t>
   </si>
   <si>
+    <t>N_pre_C_1_1</t>
+  </si>
+  <si>
     <t>N06</t>
   </si>
   <si>
@@ -507,7 +522,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -517,9 +532,6 @@
   </si>
   <si>
     <t>Total cost ($)</t>
-  </si>
-  <si>
-    <t>Supply compressor from_node</t>
   </si>
   <si>
     <t>New</t>
@@ -1152,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,10 +1186,10 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.755630199262892</v>
+        <v>0.7474769607827553</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1188,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1196,10 +1208,10 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.03603896098576601</v>
+        <v>0.04340724050323798</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1207,10 +1219,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03490656965112954</v>
+        <v>0.03528358784458713</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1218,10 +1230,10 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.006846549251642683</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1229,10 +1241,10 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.007213213683279162</v>
+        <v>0.007291122020279142</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1240,10 +1252,10 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01710116665610017</v>
+        <v>0.01728587260180433</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1254,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1265,7 +1277,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1273,10 +1285,10 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.5912967933799311</v>
+        <v>0.5873666602297594</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1287,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1298,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1306,10 +1318,10 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <v>0.00703894479662192</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1317,10 +1329,10 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.005283035307663835</v>
+        <v>0.005949744039458117</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1328,10 +1340,10 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.02893112382987446</v>
+        <v>0.02997392309127199</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1339,10 +1351,10 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.003955829998899673</v>
+        <v>0.003900798730373716</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1353,7 +1365,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1364,7 +1376,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1375,7 +1387,7 @@
         <v>32.79022202852632</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1386,7 +1398,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1397,7 +1409,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1408,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1419,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1435,10 +1447,10 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>29932.25791084654</v>
+        <v>32499.43305879532</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1446,10 +1458,10 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>9514.371362550601</v>
+        <v>9451.132821916439</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1457,10 +1469,10 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>396.432140106275</v>
+        <v>393.797200913185</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1471,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1482,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1490,10 +1502,10 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>62348068.01343869</v>
+        <v>62432255.93064445</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1504,7 +1516,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1515,7 +1527,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1526,151 +1538,136 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B51">
-        <v>0.4937575686955436</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>662.1387747720979</v>
-      </c>
-      <c r="E51">
-        <v>9953691.026075777</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>4.719227266334546</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52">
-        <v>7.028385174017528</v>
+        <v>7.627833162370241</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>9425.205086060985</v>
+        <v>10229.07682740174</v>
       </c>
       <c r="E52">
-        <v>17066988.03124651</v>
+        <v>17982269.34289656</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>67.17577421476874</v>
+        <v>72.90516748535141</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1678,10 +1675,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53">
-        <v>6.962108812631166</v>
+        <v>6.953893030856396</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1696,7 +1693,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>66.54231919230845</v>
+        <v>66.4637945400825</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1704,25 +1701,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54">
-        <v>9.39475239397262</v>
+        <v>6.510395620044759</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>12598.55085536516</v>
+        <v>8730.570734392424</v>
       </c>
       <c r="E54">
-        <v>20712894.26354946</v>
+        <v>16280618.93600638</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>89.79299654125485</v>
+        <v>62.22494291259164</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1730,25 +1727,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55">
-        <v>7.332886674639369</v>
+        <v>4.693011515378714</v>
       </c>
       <c r="C55">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>6293.422302353163</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>13554872.95917488</v>
       </c>
       <c r="F55">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>70.08613321578783</v>
+        <v>44.85478159475782</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1756,25 +1753,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56">
-        <v>5.403620523667281</v>
+        <v>4.657314514558855</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D56">
-        <v>7246.363194648297</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>14614494.69256695</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>51.64662767516936</v>
+        <v>44.51359743824857</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1782,27 +1779,53 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57">
+        <v>5.403620523667056</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>7246.363194647996</v>
+      </c>
+      <c r="E57">
+        <v>14614494.69256662</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>51.64662767516722</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58">
         <v>5.355666050340917</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>12.5</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>16916025.69007904</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>51.18828926698581</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>0</v>
       </c>
     </row>
@@ -1813,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1821,58 +1844,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1880,31 +1903,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F2">
-        <v>46.25055915303214</v>
+        <v>46.24430499036491</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>8.758481331682836</v>
@@ -1916,19 +1939,19 @@
         <v>21.747985</v>
       </c>
       <c r="N2">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
       <c r="O2">
-        <v>7966569.725241302</v>
+        <v>7902827.097503832</v>
       </c>
       <c r="P2">
-        <v>22.18462903838495</v>
+        <v>22.34843030592243</v>
       </c>
       <c r="Q2">
-        <v>0.0167719033083167</v>
+        <v>0.0169003822006259</v>
       </c>
       <c r="R2">
-        <v>48.02081707402124</v>
+        <v>48.20194141403591</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1936,31 +1959,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F3">
-        <v>46.11133038614289</v>
+        <v>46.0940275856947</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>8.758481331682836</v>
@@ -1975,16 +1998,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O3">
-        <v>8650147.238432573</v>
+        <v>8650226.706447698</v>
       </c>
       <c r="P3">
-        <v>20.4781360188474</v>
+        <v>20.47025716169664</v>
       </c>
       <c r="Q3">
-        <v>0.01543702326089421</v>
+        <v>0.01543107883218699</v>
       </c>
       <c r="R3">
-        <v>46.20693368730308</v>
+        <v>46.20673550067195</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1992,31 +2015,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F4">
-        <v>46.1113299078622</v>
+        <v>46.09402794949246</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>8.758481331682836</v>
@@ -2028,19 +2051,19 @@
         <v>18.64113</v>
       </c>
       <c r="N4">
-        <v>8650147.238432573</v>
+        <v>8650226.706447698</v>
       </c>
       <c r="O4">
-        <v>7971404.997271542</v>
+        <v>7972005.438112724</v>
       </c>
       <c r="P4">
-        <v>22.1048859017958</v>
+        <v>22.09501150562564</v>
       </c>
       <c r="Q4">
-        <v>0.01671126864861448</v>
+        <v>0.01670376046678005</v>
       </c>
       <c r="R4">
-        <v>48.00716692962379</v>
+        <v>48.00547273607122</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2048,31 +2071,31 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F5">
-        <v>45.97380626362626</v>
+        <v>45.95668315282095</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>8.758481331682836</v>
@@ -2087,16 +2110,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O5">
-        <v>8057597.678542166</v>
+        <v>8058125.981174275</v>
       </c>
       <c r="P5">
-        <v>21.81800222849555</v>
+        <v>21.80853647237521</v>
       </c>
       <c r="Q5">
-        <v>0.01648828270558897</v>
+        <v>0.01648109195333539</v>
       </c>
       <c r="R5">
-        <v>47.76592028832223</v>
+        <v>47.76445363234767</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2104,55 +2127,55 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F6">
-        <v>37.86114594188566</v>
+        <v>37.84402289712398</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>33.5</v>
+        <v>11.83333333333334</v>
       </c>
       <c r="M6">
-        <v>20.8159285</v>
+        <v>7.35289016666667</v>
       </c>
       <c r="N6">
-        <v>8057597.678542166</v>
+        <v>8058125.981174275</v>
       </c>
       <c r="O6">
-        <v>7507957.765320607</v>
+        <v>7868271.58637667</v>
       </c>
       <c r="P6">
-        <v>19.19902572673217</v>
+        <v>18.36448465532892</v>
       </c>
       <c r="Q6">
-        <v>0.01454376848631501</v>
+        <v>0.01388970737946458</v>
       </c>
       <c r="R6">
-        <v>49.37517039885037</v>
+        <v>48.3010549061403</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2160,55 +2183,55 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F7">
-        <v>37.67558508249139</v>
+        <v>37.71543259691568</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="M7">
-        <v>9.320565</v>
+        <v>22.78360333333333</v>
       </c>
       <c r="N7">
         <v>8758481.331682835</v>
       </c>
       <c r="O7">
-        <v>8537613.951261297</v>
+        <v>8207644.356335427</v>
       </c>
       <c r="P7">
-        <v>16.9376969003287</v>
+        <v>17.59223650966447</v>
       </c>
       <c r="Q7">
-        <v>0.01277414321487311</v>
+        <v>0.01328627875218027</v>
       </c>
       <c r="R7">
-        <v>46.49037692798288</v>
+        <v>47.35511246383578</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2216,111 +2239,111 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F8">
-        <v>37.67558508235562</v>
+        <v>37.71543259688846</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>6.666666666666671</v>
       </c>
       <c r="M8">
-        <v>31.06855</v>
+        <v>4.142473333333336</v>
       </c>
       <c r="N8">
-        <v>8537613.951261297</v>
+        <v>8207644.356335427</v>
       </c>
       <c r="O8">
-        <v>7759235.678891502</v>
+        <v>8103738.433851107</v>
       </c>
       <c r="P8">
-        <v>18.52358634700086</v>
+        <v>17.80332455675097</v>
       </c>
       <c r="Q8">
-        <v>0.01401666909298635</v>
+        <v>0.01345165770047377</v>
       </c>
       <c r="R8">
-        <v>48.61814963217108</v>
+        <v>47.63837068231195</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F9">
-        <v>37.53074934795094</v>
+        <v>37.62273843685858</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>43.33333333333333</v>
       </c>
       <c r="M9">
-        <v>31.06855</v>
+        <v>26.92607666666666</v>
       </c>
       <c r="N9">
         <v>8758481.331682835</v>
       </c>
       <c r="O9">
-        <v>8006080.359066883</v>
+        <v>8106970.369174024</v>
       </c>
       <c r="P9">
-        <v>17.91848567758968</v>
+        <v>17.75293878932878</v>
       </c>
       <c r="Q9">
-        <v>0.0135443358605799</v>
+        <v>0.01341340244976925</v>
       </c>
       <c r="R9">
-        <v>47.90964200102701</v>
+        <v>47.62947755447506</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2328,31 +2351,31 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F10">
-        <v>37.42401957326742</v>
+        <v>37.53074934794834</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <v>8.758481331682836</v>
@@ -2367,48 +2390,48 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O10">
-        <v>8010402.028729266</v>
+        <v>8006080.359066904</v>
       </c>
       <c r="P10">
-        <v>17.85849759233936</v>
+        <v>17.91848567758393</v>
       </c>
       <c r="Q10">
-        <v>0.01349874117484151</v>
+        <v>0.01354433586057555</v>
       </c>
       <c r="R10">
-        <v>47.89753192386976</v>
+        <v>47.90964200102695</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F11">
-        <v>37.318236972821</v>
+        <v>37.42401957326742</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <v>8.758481331682836</v>
@@ -2423,16 +2446,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O11">
-        <v>8014671.579439774</v>
+        <v>8010402.028729266</v>
       </c>
       <c r="P11">
-        <v>17.79913082276294</v>
+        <v>17.85849759233936</v>
       </c>
       <c r="Q11">
-        <v>0.01345362086728751</v>
+        <v>0.01349874117484151</v>
       </c>
       <c r="R11">
-        <v>47.88557757382086</v>
+        <v>47.89753192386976</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2440,31 +2463,31 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F12">
-        <v>37.31823697282102</v>
+        <v>37.318236972821</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <v>8.758481331682836</v>
@@ -2476,18 +2499,74 @@
         <v>31.06855</v>
       </c>
       <c r="N12">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O12">
         <v>8014671.579439774</v>
       </c>
-      <c r="O12">
+      <c r="P12">
+        <v>17.79913082276294</v>
+      </c>
+      <c r="Q12">
+        <v>0.01345362086728751</v>
+      </c>
+      <c r="R12">
+        <v>47.88557757382086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13">
+        <v>37.31823697282102</v>
+      </c>
+      <c r="G13">
+        <v>650</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13">
+        <v>9.525</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>31.06855</v>
+      </c>
+      <c r="N13">
+        <v>8014671.579439774</v>
+      </c>
+      <c r="O13">
         <v>7199669.899331047</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>19.68441511568991</v>
       </c>
-      <c r="Q12">
+      <c r="Q13">
         <v>0.01493194552505485</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>50.35778160698256</v>
       </c>
     </row>
@@ -2506,96 +2585,99 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>21.747985</v>
       </c>
       <c r="H2">
-        <v>1.006721992147452</v>
+        <v>1.108271916318309</v>
       </c>
       <c r="I2">
-        <v>4.719227266334546</v>
+        <v>72.90516748535141</v>
       </c>
       <c r="J2">
-        <v>0.4937575686955436</v>
+        <v>7.627833162370241</v>
       </c>
       <c r="K2">
-        <v>662.1387747720979</v>
+        <v>10229.07682740174</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4937575686955436</v>
+        <v>7.627833162370241</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2604,54 +2686,51 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>9953691.026075777</v>
+        <v>17982269.34289656</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>9953691.026075777</v>
+        <v>17982269.34289656</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3">
-        <v>0</v>
-      </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>21.747985</v>
+        <v>43.49597</v>
       </c>
       <c r="H3">
-        <v>1.099404340105433</v>
+        <v>1.098654711123265</v>
       </c>
       <c r="I3">
-        <v>67.17577421476874</v>
+        <v>66.4637945400825</v>
       </c>
       <c r="J3">
-        <v>7.028385174017528</v>
+        <v>6.953893030856396</v>
       </c>
       <c r="K3">
-        <v>9425.205086060985</v>
+        <v>9325.309632239043</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.028385174017528</v>
+        <v>12.5</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -2660,51 +2739,54 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>17066988.03124651</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R3">
-        <v>17066988.03124651</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="4" spans="1:18">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>113.3333333333333</v>
       </c>
       <c r="G4">
-        <v>43.49597</v>
+        <v>70.42204666666667</v>
       </c>
       <c r="H4">
-        <v>1.098737466567148</v>
+        <v>1.113139173646153</v>
       </c>
       <c r="I4">
-        <v>66.54231919230845</v>
+        <v>62.22494291259164</v>
       </c>
       <c r="J4">
-        <v>6.962108812631166</v>
+        <v>6.510395620044759</v>
       </c>
       <c r="K4">
-        <v>9336.327159914646</v>
+        <v>8730.570734392424</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.5</v>
+        <v>6.510395620044759</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -2713,13 +2795,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>16280618.93600638</v>
       </c>
       <c r="Q4">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>16916025.69007904</v>
+        <v>16280618.93600638</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2727,40 +2809,40 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5">
-        <v>135</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="G5">
-        <v>83.885085</v>
+        <v>97.34812333333335</v>
       </c>
       <c r="H5">
-        <v>1.166559749728271</v>
+        <v>1.08079516672166</v>
       </c>
       <c r="I5">
-        <v>89.79299654125485</v>
+        <v>44.85478159475782</v>
       </c>
       <c r="J5">
-        <v>9.39475239397262</v>
+        <v>4.693011515378714</v>
       </c>
       <c r="K5">
-        <v>12598.55085536516</v>
+        <v>6293.422302353163</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>9.39475239397262</v>
+        <v>4.693011515378714</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -2769,27 +2851,27 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>20712894.26354946</v>
+        <v>13554872.95917488</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>20712894.26354946</v>
+        <v>13554872.95917488</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F6">
         <v>200</v>
@@ -2798,16 +2880,16 @@
         <v>124.2742</v>
       </c>
       <c r="H6">
-        <v>1.1287814540174</v>
+        <v>1.080364295518597</v>
       </c>
       <c r="I6">
-        <v>70.08613321578783</v>
+        <v>44.51359743824857</v>
       </c>
       <c r="J6">
-        <v>7.332886674639369</v>
+        <v>4.657314514558855</v>
       </c>
       <c r="K6">
-        <v>9833.547688424886</v>
+        <v>6245.551910313717</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2836,16 +2918,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F7">
         <v>250</v>
@@ -2854,22 +2936,22 @@
         <v>155.34275</v>
       </c>
       <c r="H7">
-        <v>1.093978693551815</v>
+        <v>1.093978693551812</v>
       </c>
       <c r="I7">
-        <v>51.64662767516936</v>
+        <v>51.64662767516722</v>
       </c>
       <c r="J7">
-        <v>5.403620523667281</v>
+        <v>5.403620523667056</v>
       </c>
       <c r="K7">
-        <v>7246.363194648297</v>
+        <v>7246.363194647996</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.403620523667281</v>
+        <v>5.403620523667056</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -2878,27 +2960,27 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>14614494.69256695</v>
+        <v>14614494.69256662</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>14614494.69256695</v>
+        <v>14614494.69256662</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -2947,7 +3029,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2955,15 +3037,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -2971,145 +3053,153 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B3">
-        <v>8758481.331682835</v>
+        <v>7902827.097503832</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B4">
-        <v>7966569.725241302</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B5">
-        <v>8758481.331682835</v>
+        <v>8650226.706447698</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B6">
-        <v>8650147.238432573</v>
+        <v>7972005.438112724</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B7">
-        <v>7971404.997271542</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B8">
-        <v>8758481.331682835</v>
+        <v>8058125.981174275</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B9">
-        <v>8057597.678542166</v>
+        <v>7868271.58637667</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10">
-        <v>7507957.765320607</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B11">
-        <v>8758481.331682835</v>
+        <v>8207644.356335427</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B12">
-        <v>8537613.951261297</v>
+        <v>8103738.433851107</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B13">
-        <v>7759235.678891502</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B14">
-        <v>8758481.331682835</v>
+        <v>8106970.369174024</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B15">
-        <v>8006080.359066883</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B16">
-        <v>8758481.331682835</v>
+        <v>8006080.359066904</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B17">
-        <v>8010402.028729266</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B18">
-        <v>8758481.331682835</v>
+        <v>8010402.028729266</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19">
-        <v>8014671.579439774</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20">
+        <v>8014671.579439774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21">
         <v>7199669.899331047</v>
       </c>
     </row>
@@ -3128,36 +3218,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660321740599</v>
+        <v>8.112660255696966</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -3166,15 +3256,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520406940873</v>
+        <v>1150.520397574704</v>
       </c>
       <c r="G2">
-        <v>6.032811243941858E-07</v>
+        <v>-2.107999607744219E-07</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
@@ -3197,7 +3287,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>

--- a/examples/wangetal2018/out/ResultFiles/AC_1.0_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_1.0_b.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="212">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -399,76 +399,172 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01_pre_C_0_0</t>
   </si>
   <si>
     <t>PI01_remaining</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>PI04_remaining</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_1</t>
-  </si>
-  <si>
-    <t>PI05_remaining</t>
+    <t>PI04_0_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
+    <t>PI04</t>
+  </si>
+  <si>
+    <t>PI05_0_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
   </si>
   <si>
     <t>PI06</t>
   </si>
   <si>
-    <t>PI07_remaining</t>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
   </si>
   <si>
     <t>PI08</t>
   </si>
   <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
     <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N_post_C_0_0</t>
   </si>
   <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
   </si>
   <si>
     <t>N_pre_C_0_0</t>
@@ -1186,7 +1282,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.7474769607827553</v>
+        <v>0.7668143772587662</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -1208,7 +1304,7 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.04340724050323798</v>
+        <v>0.04428606052510944</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -1219,7 +1315,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03528358784458713</v>
+        <v>0.03538808973054117</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -1241,7 +1337,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.007291122020279142</v>
+        <v>0.00731271664963476</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1252,7 +1348,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01728587260180433</v>
+        <v>0.01733706938755091</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1274,7 +1370,7 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1285,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.5873666602297594</v>
+        <v>0.6050741821982345</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1329,7 +1425,7 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.005949744039458117</v>
+        <v>0.00606245681164367</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -1340,7 +1436,7 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.02997392309127199</v>
+        <v>0.03032586155389432</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -1351,7 +1447,7 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.003900798730373716</v>
+        <v>0.004009928680173636</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1447,7 +1543,7 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>32499.43305879532</v>
+        <v>33454.57386032275</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -1458,7 +1554,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>9451.132821916439</v>
+        <v>9736.059007555912</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1469,7 +1565,7 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>393.797200913185</v>
+        <v>405.6691253148297</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -1502,7 +1598,7 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>62432255.93064445</v>
+        <v>63508158.52955821</v>
       </c>
       <c r="C31" t="s">
         <v>77</v>
@@ -1576,7 +1672,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
@@ -1652,22 +1748,22 @@
         <v>101</v>
       </c>
       <c r="B52">
-        <v>7.627833162370241</v>
+        <v>7.842291708880055</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>10229.07682740174</v>
+        <v>10516.67002744233</v>
       </c>
       <c r="E52">
-        <v>17982269.34289656</v>
+        <v>18311088.15709077</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>72.90516748535141</v>
+        <v>74.95491554868013</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1678,7 +1774,7 @@
         <v>102</v>
       </c>
       <c r="B53">
-        <v>6.953893030856396</v>
+        <v>7.168805858468696</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1693,7 +1789,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>66.4637945400825</v>
+        <v>68.51788452321429</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1704,22 +1800,22 @@
         <v>103</v>
       </c>
       <c r="B54">
-        <v>6.510395620044759</v>
+        <v>6.688404352356296</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>8730.570734392424</v>
+        <v>8969.284004596841</v>
       </c>
       <c r="E54">
-        <v>16280618.93600638</v>
+        <v>16550382.92341388</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>62.22494291259164</v>
+        <v>63.92631159315608</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1730,22 +1826,22 @@
         <v>104</v>
       </c>
       <c r="B55">
-        <v>4.693011515378714</v>
+        <v>4.846034835883339</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>6293.422302353163</v>
+        <v>6498.629635616275</v>
       </c>
       <c r="E55">
-        <v>13554872.95917488</v>
+        <v>13782384.48884103</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>44.85478159475782</v>
+        <v>46.31734515285845</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1756,7 +1852,7 @@
         <v>105</v>
       </c>
       <c r="B56">
-        <v>4.657314514558855</v>
+        <v>4.808005909718052</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1771,7 +1867,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>44.51359743824857</v>
+        <v>45.95387296195558</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1782,22 +1878,22 @@
         <v>106</v>
       </c>
       <c r="B57">
-        <v>5.403620523667056</v>
+        <v>5.570379407217869</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>7246.363194647996</v>
+        <v>7469.990192667306</v>
       </c>
       <c r="E57">
-        <v>14614494.69256662</v>
+        <v>14864302.96021254</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>51.64662767516722</v>
+        <v>53.24047275228795</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1808,7 +1904,7 @@
         <v>107</v>
       </c>
       <c r="B58">
-        <v>5.355666050340917</v>
+        <v>5.519933606813229</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1823,7 +1919,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>51.18828926698581</v>
+        <v>52.75832278267718</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1836,7 +1932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1906,16 +2002,16 @@
         <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F2">
-        <v>46.24430499036491</v>
+        <v>46.26840324111094</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1933,25 +2029,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>21.747985</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>8700000</v>
       </c>
       <c r="O2">
-        <v>7902827.097503832</v>
+        <v>8400980.744238859</v>
       </c>
       <c r="P2">
-        <v>22.34843030592243</v>
+        <v>20.72262859651975</v>
       </c>
       <c r="Q2">
-        <v>0.0169003822006259</v>
+        <v>0.01554896299071758</v>
       </c>
       <c r="R2">
-        <v>48.20194141403591</v>
+        <v>47.10940500122411</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1962,16 +2058,16 @@
         <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F3">
-        <v>46.0940275856947</v>
+        <v>46.26841413721092</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1989,25 +2085,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>3.106855</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>8758481.331682835</v>
+        <v>8400980.744238859</v>
       </c>
       <c r="O3">
-        <v>8650226.706447698</v>
+        <v>8091531.137787693</v>
       </c>
       <c r="P3">
-        <v>20.47025716169664</v>
+        <v>20.73860037866104</v>
       </c>
       <c r="Q3">
-        <v>0.01543107883218699</v>
+        <v>0.01557782402519739</v>
       </c>
       <c r="R3">
-        <v>46.20673550067195</v>
+        <v>47.95495305851576</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2018,16 +2114,16 @@
         <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F4">
-        <v>46.09402794949246</v>
+        <v>46.26842496231473</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2045,45 +2141,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="M4">
-        <v>18.64113</v>
+        <v>5.178091666666666</v>
       </c>
       <c r="N4">
-        <v>8650226.706447698</v>
+        <v>8091531.137787693</v>
       </c>
       <c r="O4">
-        <v>7972005.438112724</v>
+        <v>7892286.172675607</v>
       </c>
       <c r="P4">
-        <v>22.09501150562564</v>
+        <v>20.7486089295085</v>
       </c>
       <c r="Q4">
-        <v>0.01670376046678005</v>
+        <v>0.01559641968457603</v>
       </c>
       <c r="R4">
-        <v>48.00547273607122</v>
+        <v>48.52544954933388</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F5">
-        <v>45.95668315282095</v>
+        <v>46.11430321568965</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2101,45 +2197,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L5">
-        <v>31.5</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>19.5731865</v>
+        <v>3.106855</v>
       </c>
       <c r="N5">
         <v>8758481.331682835</v>
       </c>
       <c r="O5">
-        <v>8058125.981174275</v>
+        <v>8648934.335705761</v>
       </c>
       <c r="P5">
-        <v>21.80853647237521</v>
+        <v>20.48742402300153</v>
       </c>
       <c r="Q5">
-        <v>0.01648109195333539</v>
+        <v>0.01535929092801148</v>
       </c>
       <c r="R5">
-        <v>47.76445363234767</v>
+        <v>46.46512433400179</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F6">
-        <v>37.84402289712398</v>
+        <v>46.11430363662723</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2157,45 +2253,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>11.83333333333334</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>7.35289016666667</v>
+        <v>9.320565</v>
       </c>
       <c r="N6">
-        <v>8058125.981174275</v>
+        <v>8648934.335705761</v>
       </c>
       <c r="O6">
-        <v>7868271.58637667</v>
+        <v>8312110.789706063</v>
       </c>
       <c r="P6">
-        <v>18.36448465532892</v>
+        <v>20.50479538940009</v>
       </c>
       <c r="Q6">
-        <v>0.01388970737946458</v>
+        <v>0.01539042169475343</v>
       </c>
       <c r="R6">
-        <v>48.3010549061403</v>
+        <v>47.34693348960434</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F7">
-        <v>37.71543259691568</v>
+        <v>46.1143042906361</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2213,25 +2309,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>36.66666666666666</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>22.78360333333333</v>
+        <v>9.320565</v>
       </c>
       <c r="N7">
-        <v>8758481.331682835</v>
+        <v>8312110.789706063</v>
       </c>
       <c r="O7">
-        <v>8207644.356335427</v>
+        <v>7961828.336791218</v>
       </c>
       <c r="P7">
-        <v>17.59223650966447</v>
+        <v>20.52221220228204</v>
       </c>
       <c r="Q7">
-        <v>0.01328627875218027</v>
+        <v>0.01542235930207861</v>
       </c>
       <c r="R7">
-        <v>47.35511246383578</v>
+        <v>48.32402383795556</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2242,16 +2338,16 @@
         <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F8">
-        <v>37.71543259688846</v>
+        <v>45.97273564796909</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2269,25 +2365,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>6.666666666666671</v>
+        <v>15.75</v>
       </c>
       <c r="M8">
-        <v>4.142473333333336</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N8">
-        <v>8207644.356335427</v>
+        <v>8758481.331682835</v>
       </c>
       <c r="O8">
-        <v>8103738.433851107</v>
+        <v>8410967.683713766</v>
       </c>
       <c r="P8">
-        <v>17.80332455675097</v>
+        <v>20.47431857876862</v>
       </c>
       <c r="Q8">
-        <v>0.01345165770047377</v>
+        <v>0.01536210202505038</v>
       </c>
       <c r="R8">
-        <v>47.63837068231195</v>
+        <v>47.08293511776323</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2298,16 +2394,16 @@
         <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F9">
-        <v>37.62273843685858</v>
+        <v>45.97273566854484</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2325,45 +2421,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>43.33333333333333</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>26.92607666666666</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
-        <v>8758481.331682835</v>
+        <v>8410967.683713766</v>
       </c>
       <c r="O9">
-        <v>8106970.369174024</v>
+        <v>8049296.565045817</v>
       </c>
       <c r="P9">
-        <v>17.75293878932878</v>
+        <v>20.49263925874537</v>
       </c>
       <c r="Q9">
-        <v>0.01341340244976925</v>
+        <v>0.0153953477811797</v>
       </c>
       <c r="R9">
-        <v>47.62947755447506</v>
+        <v>48.07420206244507</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F10">
-        <v>37.53074934794834</v>
+        <v>37.86007548776315</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2381,45 +2477,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>11.83333333333334</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>7.35289016666667</v>
       </c>
       <c r="N10">
-        <v>8758481.331682835</v>
+        <v>8049296.565045817</v>
       </c>
       <c r="O10">
-        <v>8006080.359066904</v>
+        <v>7856753.446551932</v>
       </c>
       <c r="P10">
-        <v>17.91848567758393</v>
+        <v>16.88773231140672</v>
       </c>
       <c r="Q10">
-        <v>0.01354433586057555</v>
+        <v>0.01269590831532429</v>
       </c>
       <c r="R10">
-        <v>47.90964200102695</v>
+        <v>48.6293455730865</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F11">
-        <v>37.42401957326742</v>
+        <v>37.72796969950208</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2437,45 +2533,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>4.333333333333329</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>2.692607666666664</v>
       </c>
       <c r="N11">
         <v>8758481.331682835</v>
       </c>
       <c r="O11">
-        <v>8010402.028729266</v>
+        <v>8694343.429134982</v>
       </c>
       <c r="P11">
-        <v>17.85849759233936</v>
+        <v>16.7590856972009</v>
       </c>
       <c r="Q11">
-        <v>0.01349874117484151</v>
+        <v>0.01256218654299379</v>
       </c>
       <c r="R11">
-        <v>47.89753192386976</v>
+        <v>46.35026176212162</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F12">
-        <v>37.318236972821</v>
+        <v>37.72796969963471</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2493,45 +2589,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>8758481.331682835</v>
+        <v>8694343.429134982</v>
       </c>
       <c r="O12">
-        <v>8014671.579439774</v>
+        <v>8451002.282679021</v>
       </c>
       <c r="P12">
-        <v>17.79913082276294</v>
+        <v>16.77439734614498</v>
       </c>
       <c r="Q12">
-        <v>0.01345362086728751</v>
+        <v>0.01258423208641545</v>
       </c>
       <c r="R12">
-        <v>47.88557757382086</v>
+        <v>46.97727159327673</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F13">
-        <v>37.31823697282102</v>
+        <v>37.72796969986837</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -2549,25 +2645,921 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>8014671.579439774</v>
+        <v>8451002.282679021</v>
       </c>
       <c r="O13">
-        <v>7199669.899331047</v>
+        <v>8200841.267358846</v>
       </c>
       <c r="P13">
-        <v>19.68441511568991</v>
+        <v>16.78975188765184</v>
       </c>
       <c r="Q13">
-        <v>0.01493194552505485</v>
+        <v>0.01260689368758529</v>
       </c>
       <c r="R13">
-        <v>50.35778160698256</v>
+        <v>47.65039032462247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14">
+        <v>37.72796970000722</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>9.525</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L14">
+        <v>6.666666666666671</v>
+      </c>
+      <c r="M14">
+        <v>4.142473333333336</v>
+      </c>
+      <c r="N14">
+        <v>8200841.267358846</v>
+      </c>
+      <c r="O14">
+        <v>8095549.545282159</v>
+      </c>
+      <c r="P14">
+        <v>16.79609619544853</v>
+      </c>
+      <c r="Q14">
+        <v>0.01261623068486478</v>
+      </c>
+      <c r="R14">
+        <v>47.94365329066171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15">
+        <v>37.63225310124334</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>6.21371</v>
+      </c>
+      <c r="N15">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O15">
+        <v>8610527.528050417</v>
+      </c>
+      <c r="P15">
+        <v>16.7379930373582</v>
+      </c>
+      <c r="Q15">
+        <v>0.01254999822767814</v>
+      </c>
+      <c r="R15">
+        <v>46.56319195670006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16">
+        <v>37.63225310124555</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L16">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M16">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N16">
+        <v>8610527.528050417</v>
+      </c>
+      <c r="O16">
+        <v>8358436.111260964</v>
+      </c>
+      <c r="P16">
+        <v>16.7538007793998</v>
+      </c>
+      <c r="Q16">
+        <v>0.01257291275165357</v>
+      </c>
+      <c r="R16">
+        <v>47.22266970878732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17">
+        <v>37.63225310124767</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>8358436.111260964</v>
+      </c>
+      <c r="O17">
+        <v>8098933.185954942</v>
+      </c>
+      <c r="P17">
+        <v>16.76965430005646</v>
+      </c>
+      <c r="Q17">
+        <v>0.01259622067831441</v>
+      </c>
+      <c r="R17">
+        <v>47.9341446802885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18">
+        <v>37.53728762671928</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O18">
+        <v>8511767.951245224</v>
+      </c>
+      <c r="P18">
+        <v>16.72100496245979</v>
+      </c>
+      <c r="Q18">
+        <v>0.01254151433508201</v>
+      </c>
+      <c r="R18">
+        <v>46.81824311018517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19">
+        <v>37.53728762671933</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>8511767.951245224</v>
+      </c>
+      <c r="O19">
+        <v>8258090.346821302</v>
+      </c>
+      <c r="P19">
+        <v>16.73684598116004</v>
+      </c>
+      <c r="Q19">
+        <v>0.01256473518568816</v>
+      </c>
+      <c r="R19">
+        <v>47.49317925208175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20">
+        <v>37.53728762671938</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>8258090.346821302</v>
+      </c>
+      <c r="O20">
+        <v>7996800.785368308</v>
+      </c>
+      <c r="P20">
+        <v>16.75273301986336</v>
+      </c>
+      <c r="Q20">
+        <v>0.01258803668679293</v>
+      </c>
+      <c r="R20">
+        <v>48.22367103659762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21">
+        <v>37.42726410889182</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N21">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O21">
+        <v>8513186.508462738</v>
+      </c>
+      <c r="P21">
+        <v>16.67199492726853</v>
+      </c>
+      <c r="Q21">
+        <v>0.01250469302123701</v>
+      </c>
+      <c r="R21">
+        <v>46.81454990266362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22">
+        <v>37.4272641088918</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>8513186.508462738</v>
+      </c>
+      <c r="O22">
+        <v>8261009.584684702</v>
+      </c>
+      <c r="P22">
+        <v>16.68778951521371</v>
+      </c>
+      <c r="Q22">
+        <v>0.01252778448668424</v>
+      </c>
+      <c r="R22">
+        <v>47.48520440303102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23">
+        <v>37.42726410889183</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>8261009.584684702</v>
+      </c>
+      <c r="O23">
+        <v>8001314.936959958</v>
+      </c>
+      <c r="P23">
+        <v>16.70362998827537</v>
+      </c>
+      <c r="Q23">
+        <v>0.01255093887932279</v>
+      </c>
+      <c r="R23">
+        <v>48.21076326695984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24">
+        <v>37.31823697282104</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O24">
+        <v>8514588.068679847</v>
+      </c>
+      <c r="P24">
+        <v>16.6234287308664</v>
+      </c>
+      <c r="Q24">
+        <v>0.01246820571919365</v>
+      </c>
+      <c r="R24">
+        <v>46.81090180498303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25">
+        <v>37.31823697282097</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>8514588.068679847</v>
+      </c>
+      <c r="O25">
+        <v>8263893.339292537</v>
+      </c>
+      <c r="P25">
+        <v>16.63917730853723</v>
+      </c>
+      <c r="Q25">
+        <v>0.01249116958626076</v>
+      </c>
+      <c r="R25">
+        <v>47.47733043109715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26">
+        <v>37.318236972821</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>8263893.339292537</v>
+      </c>
+      <c r="O26">
+        <v>8005773.332778163</v>
+      </c>
+      <c r="P26">
+        <v>16.65497163765936</v>
+      </c>
+      <c r="Q26">
+        <v>0.0125141790690114</v>
+      </c>
+      <c r="R26">
+        <v>48.19802509366989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27">
+        <v>37.31823697282101</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>8005773.332778163</v>
+      </c>
+      <c r="O27">
+        <v>7739504.085621269</v>
+      </c>
+      <c r="P27">
+        <v>16.67081194198452</v>
+      </c>
+      <c r="Q27">
+        <v>0.01253783275548484</v>
+      </c>
+      <c r="R27">
+        <v>48.97883457136526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28">
+        <v>37.31823697282106</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>7739504.085621269</v>
+      </c>
+      <c r="O28">
+        <v>7464214.197561333</v>
+      </c>
+      <c r="P28">
+        <v>16.68669844680667</v>
+      </c>
+      <c r="Q28">
+        <v>0.01256209459644473</v>
+      </c>
+      <c r="R28">
+        <v>49.82996189517983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29">
+        <v>37.31823697282098</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>7464214.197561333</v>
+      </c>
+      <c r="O29">
+        <v>7178890.867953929</v>
+      </c>
+      <c r="P29">
+        <v>16.70263137897549</v>
+      </c>
+      <c r="Q29">
+        <v>0.01258658396492461</v>
+      </c>
+      <c r="R29">
+        <v>50.76547770199675</v>
       </c>
     </row>
   </sheetData>
@@ -2585,7 +3577,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2600,43 +3592,43 @@
         <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2647,13 +3639,13 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F2">
         <v>35</v>
@@ -2662,22 +3654,22 @@
         <v>21.747985</v>
       </c>
       <c r="H2">
-        <v>1.108271916318309</v>
+        <v>1.10975212252264</v>
       </c>
       <c r="I2">
-        <v>72.90516748535141</v>
+        <v>74.95491554868013</v>
       </c>
       <c r="J2">
-        <v>7.627833162370241</v>
+        <v>7.842291708880055</v>
       </c>
       <c r="K2">
-        <v>10229.07682740174</v>
+        <v>10516.67002744233</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7.627833162370241</v>
+        <v>7.842291708880055</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2686,13 +3678,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>17982269.34289656</v>
+        <v>18311088.15709077</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>17982269.34289656</v>
+        <v>18311088.15709077</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2700,13 +3692,13 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>70</v>
@@ -2715,16 +3707,16 @@
         <v>43.49597</v>
       </c>
       <c r="H3">
-        <v>1.098654711123265</v>
+        <v>1.10005905191529</v>
       </c>
       <c r="I3">
-        <v>66.4637945400825</v>
+        <v>68.51788452321429</v>
       </c>
       <c r="J3">
-        <v>6.953893030856396</v>
+        <v>7.168805858468696</v>
       </c>
       <c r="K3">
-        <v>9325.309632239043</v>
+        <v>9613.51203232369</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2756,13 +3748,13 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F4">
         <v>113.3333333333333</v>
@@ -2771,22 +3763,22 @@
         <v>70.42204666666667</v>
       </c>
       <c r="H4">
-        <v>1.113139173646153</v>
+        <v>1.114771055406689</v>
       </c>
       <c r="I4">
-        <v>62.22494291259164</v>
+        <v>63.92631159315608</v>
       </c>
       <c r="J4">
-        <v>6.510395620044759</v>
+        <v>6.688404352356296</v>
       </c>
       <c r="K4">
-        <v>8730.570734392424</v>
+        <v>8969.284004596841</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.510395620044759</v>
+        <v>6.688404352356296</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -2795,13 +3787,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>16280618.93600638</v>
+        <v>16550382.92341388</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>16280618.93600638</v>
+        <v>16550382.92341388</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2812,13 +3804,13 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F5">
         <v>156.6666666666667</v>
@@ -2827,22 +3819,22 @@
         <v>97.34812333333335</v>
       </c>
       <c r="H5">
-        <v>1.08079516672166</v>
+        <v>1.081888423101186</v>
       </c>
       <c r="I5">
-        <v>44.85478159475782</v>
+        <v>46.31734515285845</v>
       </c>
       <c r="J5">
-        <v>4.693011515378714</v>
+        <v>4.846034835883339</v>
       </c>
       <c r="K5">
-        <v>6293.422302353163</v>
+        <v>6498.629635616275</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.693011515378714</v>
+        <v>4.846034835883339</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -2851,13 +3843,13 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>13554872.95917488</v>
+        <v>13782384.48884103</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>13554872.95917488</v>
+        <v>13782384.48884103</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2865,13 +3857,13 @@
         <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F6">
         <v>200</v>
@@ -2880,16 +3872,16 @@
         <v>124.2742</v>
       </c>
       <c r="H6">
-        <v>1.080364295518597</v>
+        <v>1.081436422623127</v>
       </c>
       <c r="I6">
-        <v>44.51359743824857</v>
+        <v>45.95387296195558</v>
       </c>
       <c r="J6">
-        <v>4.657314514558855</v>
+        <v>4.808005909718052</v>
       </c>
       <c r="K6">
-        <v>6245.551910313717</v>
+        <v>6447.632085050102</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2921,13 +3913,13 @@
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="F7">
         <v>250</v>
@@ -2936,22 +3928,22 @@
         <v>155.34275</v>
       </c>
       <c r="H7">
-        <v>1.093978693551812</v>
+        <v>1.095248158201986</v>
       </c>
       <c r="I7">
-        <v>51.64662767516722</v>
+        <v>53.24047275228795</v>
       </c>
       <c r="J7">
-        <v>5.403620523667056</v>
+        <v>5.570379407217869</v>
       </c>
       <c r="K7">
-        <v>7246.363194647996</v>
+        <v>7469.990192667306</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.403620523667056</v>
+        <v>5.570379407217869</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -2960,13 +3952,13 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>14614494.69256662</v>
+        <v>14864302.96021254</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>14614494.69256662</v>
+        <v>14864302.96021254</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2974,31 +3966,31 @@
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G8">
         <v>186.4113</v>
       </c>
       <c r="H8">
-        <v>1.093388484157298</v>
+        <v>1.094630245239485</v>
       </c>
       <c r="I8">
-        <v>51.18828926698581</v>
+        <v>52.75832278267718</v>
       </c>
       <c r="J8">
-        <v>5.355666050340917</v>
+        <v>5.519933606813229</v>
       </c>
       <c r="K8">
-        <v>7182.055286828176</v>
+        <v>7402.341365408676</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3029,7 +4021,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3037,15 +4029,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -3053,63 +4045,63 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B3">
-        <v>7902827.097503832</v>
+        <v>8400980.744238859</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B4">
-        <v>8758481.331682835</v>
+        <v>8091531.137787693</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="B5">
-        <v>8650226.706447698</v>
+        <v>7892286.172675607</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B6">
-        <v>7972005.438112724</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B7">
-        <v>8758481.331682835</v>
+        <v>8648934.335705761</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B8">
-        <v>8058125.981174275</v>
+        <v>8312110.789706063</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="B9">
-        <v>7868271.58637667</v>
+        <v>7961828.336791218</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B10">
         <v>8758481.331682835</v>
@@ -3117,71 +4109,71 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B11">
-        <v>8207644.356335427</v>
+        <v>8410967.683713766</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B12">
-        <v>8103738.433851107</v>
+        <v>8049296.565045817</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B13">
-        <v>8758481.331682835</v>
+        <v>7856753.446551932</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B14">
-        <v>8106970.369174024</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B15">
-        <v>8758481.331682835</v>
+        <v>8694343.429134982</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B16">
-        <v>8006080.359066904</v>
+        <v>8451002.282679021</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B17">
-        <v>8758481.331682835</v>
+        <v>8200841.267358846</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B18">
-        <v>8010402.028729266</v>
+        <v>8095549.545282159</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B19">
         <v>8758481.331682835</v>
@@ -3189,18 +4181,146 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B20">
-        <v>8014671.579439774</v>
+        <v>8610527.528050417</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B21">
-        <v>7199669.899331047</v>
+        <v>8358436.111260964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22">
+        <v>8098933.185954942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24">
+        <v>8511767.951245224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25">
+        <v>8258090.346821302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26">
+        <v>7996800.785368308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28">
+        <v>8513186.508462738</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29">
+        <v>8261009.584684702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30">
+        <v>8001314.936959958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <v>8514588.068679847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33">
+        <v>8263893.339292537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>8005773.332778163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35">
+        <v>7739504.085621269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36">
+        <v>7464214.197561333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37">
+        <v>7178890.867953929</v>
       </c>
     </row>
   </sheetData>
@@ -3218,36 +4338,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660255696966</v>
+        <v>8.112660180781688</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -3256,21 +4376,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520397574704</v>
+        <v>1150.520386950377</v>
       </c>
       <c r="G2">
-        <v>-2.107999607744219E-07</v>
+        <v>-1.134236601997908E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.09291642722412</v>
+        <v>21.0929164272241</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -3279,21 +4399,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353000000001</v>
+        <v>2991.352999999998</v>
       </c>
       <c r="G3">
-        <v>1.684316007726224E-14</v>
+        <v>-6.737264030904896E-14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.2253205455969</v>
+        <v>16.22532054559689</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -3302,10 +4422,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040800000001</v>
+        <v>2301.040799999999</v>
       </c>
       <c r="G4">
-        <v>2.189610780764888E-14</v>
+        <v>-6.568832342294664E-14</v>
       </c>
     </row>
   </sheetData>
